--- a/db/documents/NT3280-P11_部品提出保証書_20210204.xlsx
+++ b/db/documents/NT3280-P11_部品提出保証書_20210204.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhin25\Desktop\IATF文書類\AAR PSWなどの書式入手_20210908\部品提出保証書_登録用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhin25\Desktop\IATF文書類\AAR PSWなどの書式入手_20210908\部品提出保証書_登録用\Documents移動済\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>重量〔kg〕</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>安全及び/又は政府規制　　□Yes　■N0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -896,6 +892,10 @@
   </si>
   <si>
     <t>NT3280-P11</t>
+  </si>
+  <si>
+    <t>重量〔g〕7.6</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2076,6 +2076,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="54" fillId="0" borderId="8" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="6" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2120,15 +2129,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="165" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="54" fillId="0" borderId="8" xfId="165" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="174">
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E37" zoomScale="130" zoomScaleNormal="75" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="130" zoomScaleNormal="75" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3057,35 +3057,35 @@
     </row>
     <row r="2" spans="1:17" ht="24">
       <c r="A2" s="1"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="3"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6" t="s">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="4"/>
@@ -3115,10 +3115,10 @@
     </row>
     <row r="4" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="38" t="str">
         <f>H3</f>
         <v>NT3280-P11</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="5" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="6" t="s">
@@ -3179,10 +3179,10 @@
     </row>
     <row r="6" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="12"/>
       <c r="E6" s="1"/>
       <c r="F6" s="6" t="s">
@@ -3206,23 +3206,23 @@
     </row>
     <row r="7" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="1"/>
       <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="43" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="13"/>
       <c r="K7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -3231,63 +3231,63 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="61"/>
+      <c r="B8" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="64"/>
       <c r="D8" s="12"/>
       <c r="E8" s="1"/>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="13"/>
       <c r="K8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="1"/>
       <c r="N8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="13"/>
-      <c r="B9" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="67"/>
+      <c r="B9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="53"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="18"/>
       <c r="I9" s="9"/>
       <c r="J9" s="13"/>
       <c r="K9" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="1"/>
       <c r="N9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="18"/>
@@ -3295,63 +3295,63 @@
     </row>
     <row r="10" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="13"/>
-      <c r="B10" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="65"/>
+      <c r="B10" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="68"/>
       <c r="D10" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="53"/>
+        <v>22</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="56"/>
       <c r="I10" s="9"/>
       <c r="J10" s="13"/>
       <c r="K10" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="55"/>
+      <c r="P10" s="58"/>
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="13"/>
-      <c r="B11" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="67"/>
+      <c r="B11" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="53"/>
       <c r="D11" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="13"/>
       <c r="K11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="1"/>
       <c r="N11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="8"/>
@@ -3359,28 +3359,28 @@
     </row>
     <row r="12" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="13"/>
-      <c r="B12" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="67"/>
+      <c r="B12" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="53"/>
       <c r="D12" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
       <c r="J12" s="13"/>
       <c r="K12" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="8"/>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="13" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="13"/>
-      <c r="B13" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="67"/>
+      <c r="B13" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="53"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3400,7 +3400,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="13"/>
       <c r="K13" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="1"/>
@@ -3412,25 +3412,25 @@
     <row r="14" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="18"/>
       <c r="I14" s="9"/>
       <c r="J14" s="13"/>
       <c r="K14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="18"/>
@@ -3441,19 +3441,19 @@
       <c r="B15" s="21"/>
       <c r="C15" s="1"/>
       <c r="D15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="13"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="12"/>
@@ -3464,25 +3464,25 @@
     <row r="16" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="18"/>
       <c r="I16" s="9"/>
       <c r="J16" s="13"/>
       <c r="K16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="18"/>
@@ -3510,7 +3510,7 @@
     <row r="18" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="1"/>
@@ -3521,7 +3521,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="13"/>
       <c r="K18" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -3533,27 +3533,27 @@
     <row r="19" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>100</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="18"/>
       <c r="I19" s="9"/>
       <c r="J19" s="13"/>
       <c r="K19" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="18"/>
@@ -3562,27 +3562,27 @@
     <row r="20" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="18"/>
       <c r="I20" s="9"/>
       <c r="J20" s="13"/>
       <c r="K20" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="18"/>
@@ -3591,27 +3591,27 @@
     <row r="21" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="18"/>
       <c r="I21" s="9"/>
       <c r="J21" s="13"/>
       <c r="K21" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="18"/>
@@ -3620,27 +3620,27 @@
     <row r="22" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="18"/>
       <c r="I22" s="9"/>
       <c r="J22" s="13"/>
       <c r="K22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="18"/>
@@ -3649,27 +3649,27 @@
     <row r="23" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="18"/>
       <c r="I23" s="9"/>
       <c r="J23" s="13"/>
       <c r="K23" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="18"/>
@@ -3697,7 +3697,7 @@
     <row r="25" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="1"/>
@@ -3708,7 +3708,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="13"/>
       <c r="K25" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3720,10 +3720,10 @@
     <row r="26" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="13"/>
       <c r="K26" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3745,10 +3745,10 @@
     <row r="27" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3758,7 +3758,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="13"/>
       <c r="K27" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3770,10 +3770,10 @@
     <row r="28" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3783,7 +3783,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="13"/>
       <c r="K28" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3795,10 +3795,10 @@
     <row r="29" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3808,7 +3808,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="13"/>
       <c r="K29" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3820,10 +3820,10 @@
     <row r="30" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3833,7 +3833,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="13"/>
       <c r="K30" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3864,7 +3864,7 @@
     <row r="32" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="47"/>
       <c r="D32" s="1"/>
@@ -3875,7 +3875,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="13"/>
       <c r="K32" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3887,7 +3887,7 @@
     <row r="33" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="1"/>
@@ -3898,7 +3898,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="13"/>
       <c r="K33" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3910,7 +3910,7 @@
     <row r="34" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="1"/>
@@ -3921,7 +3921,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="13"/>
       <c r="K34" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3933,7 +3933,7 @@
     <row r="35" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="12"/>
@@ -3944,7 +3944,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="13"/>
       <c r="K35" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
@@ -3975,7 +3975,7 @@
     <row r="37" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="1"/>
@@ -3986,7 +3986,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="13"/>
       <c r="K37" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3998,7 +3998,7 @@
     <row r="38" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="1"/>
@@ -4009,7 +4009,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="13"/>
       <c r="K38" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -4021,7 +4021,7 @@
     <row r="39" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="1"/>
@@ -4032,7 +4032,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="13"/>
       <c r="K39" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -4053,7 +4053,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="13"/>
       <c r="K40" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -4074,7 +4074,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="13"/>
       <c r="K41" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -4105,7 +4105,7 @@
     <row r="43" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="49"/>
       <c r="D43" s="12"/>
@@ -4116,7 +4116,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="13"/>
       <c r="K43" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
@@ -4166,7 +4166,7 @@
     <row r="46" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="1"/>
@@ -4177,7 +4177,7 @@
       <c r="I46" s="9"/>
       <c r="J46" s="13"/>
       <c r="K46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4189,29 +4189,29 @@
     <row r="47" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="12"/>
       <c r="E47" s="1"/>
       <c r="F47" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="12"/>
-      <c r="H47" s="68">
+      <c r="H47" s="51">
         <v>44231</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="13"/>
       <c r="K47" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="15"/>
@@ -4220,64 +4220,64 @@
     <row r="48" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="46"/>
       <c r="D48" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="13"/>
       <c r="K48" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q48" s="9"/>
     </row>
     <row r="49" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="46"/>
       <c r="D49" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="13"/>
       <c r="K49" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L49" s="27"/>
       <c r="M49" s="1"/>
       <c r="N49" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="15"/>
@@ -4304,23 +4304,23 @@
     </row>
     <row r="51" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A51" s="13"/>
-      <c r="B51" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
+      <c r="B51" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
       <c r="G51" s="31"/>
       <c r="H51" s="18"/>
       <c r="I51" s="9"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
+      <c r="K51" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
       <c r="O51" s="31"/>
       <c r="P51" s="18"/>
       <c r="Q51" s="9"/>
@@ -4328,7 +4328,7 @@
     <row r="52" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="13"/>
       <c r="B52" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="1"/>
@@ -4339,7 +4339,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="13"/>
       <c r="K52" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4351,25 +4351,25 @@
     <row r="53" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="12"/>
       <c r="E53" s="1"/>
       <c r="F53" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="15"/>
       <c r="I53" s="9"/>
       <c r="J53" s="13"/>
       <c r="K53" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="1"/>
       <c r="N53" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O53" s="12"/>
       <c r="P53" s="15"/>
@@ -4378,25 +4378,25 @@
     <row r="54" spans="1:17" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="32"/>
       <c r="B54" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="46"/>
       <c r="D54" s="6"/>
       <c r="E54" s="1"/>
       <c r="F54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="8"/>
       <c r="I54" s="9"/>
       <c r="J54" s="32"/>
       <c r="K54" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="1"/>
       <c r="N54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="8"/>
@@ -4460,11 +4460,6 @@
     <row r="78" s="10" customFormat="1" ht="10.5"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="O10:P10"/>
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="B3:C3"/>
@@ -4477,6 +4472,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
